--- a/human_study/data/processed/human_likeness_comment_classifiations.xlsx
+++ b/human_study/data/processed/human_likeness_comment_classifiations.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{544FC220-B891-48AD-9845-EA96D842CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CBAA97A8-6B4B-41D8-B479-98AC3718FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="llm + FHC annotations" sheetId="1" r:id="rId1"/>
-    <sheet name="pivot table" sheetId="3" r:id="rId2"/>
+    <sheet name="descriptions" sheetId="4" r:id="rId2"/>
+    <sheet name="pivot table" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'llm + FHC annotations'!$A$1:$Y$200</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId3"/>
+    <pivotCache cacheId="52" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="271">
   <si>
     <t>isCreative</t>
   </si>
@@ -783,6 +784,63 @@
   </si>
   <si>
     <t>Sum of hasLessonsLearned</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Frequent mentions of creativity, original ideas, unique concepts, and imaginative storytelling.</t>
+  </si>
+  <si>
+    <t>Discussions on the nuanced exploration of complex themes like human relationships, philosophical concepts, or societal issues.</t>
+  </si>
+  <si>
+    <t>The writing is described as funny or humorous.</t>
+  </si>
+  <si>
+    <t>The writing is described as casual, informal, or using slang</t>
+  </si>
+  <si>
+    <t>Errors in punctuation and grammar.</t>
+  </si>
+  <si>
+    <t>Identification of cursing or aggressive language</t>
+  </si>
+  <si>
+    <t>The writing is described as using advanced vocabulary, uncommon words especially well suited to the context.</t>
+  </si>
+  <si>
+    <t>The writing describes the use of literary techniques like alliteration, anaphora, or metaphors.</t>
+  </si>
+  <si>
+    <t>The presence of unexpected plot twists or unique story concepts.</t>
+  </si>
+  <si>
+    <t>Repetitive use of certain phrases or words, or repetition of the prompt.</t>
+  </si>
+  <si>
+    <t>Perceptions of the narrative being too straightforward, predictable, or lacking in depth.</t>
+  </si>
+  <si>
+    <t>The writing has a robotic feel, lack of stylistic variance, and overly consistent writing style.</t>
+  </si>
+  <si>
+    <t>Views that the story follows a strict structure or formula, possibly indicating an AI's patterned approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not address parts adequately. </t>
+  </si>
+  <si>
+    <t>The names chosen appear to be very generic or common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The story follows a particular kind of formula where a lesson is presented at the end. </t>
+  </si>
+  <si>
+    <t>Associated Authorship</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1324,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1275,6 +1333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7323,9 +7382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22143,6 +22202,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AG11"/>
   <sheetViews>

--- a/human_study/data/processed/human_likeness_comment_classifiations.xlsx
+++ b/human_study/data/processed/human_likeness_comment_classifiations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrice\Documents\GitHub\llm-psych-depth\human_study\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C41B41-D1EC-4F94-90E0-CB0D15A21D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED44CBEA-0815-42D9-976C-51C78D0C276C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="284">
   <si>
     <t>isCreative</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Being repetitive, simplisitic, robotic, formulaic (e.g. lessons learned), using basic names were correctly associated with LLM authorship. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1383,16 +1386,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1452,7 +1455,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabrice Harel-Canada" refreshedDate="45323.697450694446" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="199" xr:uid="{00000000-000A-0000-FFFF-FFFF34000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabrice Harel-Canada" refreshedDate="45325.606790046295" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="199" xr:uid="{00000000-000A-0000-FFFF-FFFF34000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Z200" sheet="llm + FHC annotations"/>
   </cacheSource>
@@ -1521,13 +1524,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="99"/>
     </cacheField>
     <cacheField name="human_likeness_score" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="5"/>
-        <n v="1"/>
-        <n v="4"/>
-        <n v="2"/>
-        <n v="3"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="prediction" numFmtId="0">
       <sharedItems count="2">
@@ -1539,10 +1536,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="author_type" numFmtId="0">
-      <sharedItems count="2">
-        <s v="LLM"/>
-        <s v="Human"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="llm_annotator" numFmtId="0">
       <sharedItems/>
@@ -1580,10 +1574,10 @@
     <d v="2024-01-31T20:57:36"/>
     <n v="3"/>
     <n v="0"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1608,10 +1602,10 @@
     <d v="2024-01-31T20:57:52"/>
     <n v="4"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1636,10 +1630,10 @@
     <d v="2024-01-31T21:00:22"/>
     <n v="6"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1664,10 +1658,10 @@
     <d v="2024-01-31T21:01:29"/>
     <n v="7"/>
     <n v="0"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1692,10 +1686,10 @@
     <d v="2024-01-31T21:01:48"/>
     <n v="3"/>
     <n v="1"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1720,10 +1714,10 @@
     <d v="2024-01-31T21:04:05"/>
     <n v="6"/>
     <n v="1"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1748,10 +1742,10 @@
     <d v="2024-01-31T21:04:38"/>
     <n v="7"/>
     <n v="1"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1776,10 +1770,10 @@
     <d v="2024-01-31T21:07:49"/>
     <n v="3"/>
     <n v="2"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1804,10 +1798,10 @@
     <d v="2024-01-31T21:08:19"/>
     <n v="6"/>
     <n v="2"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1832,10 +1826,10 @@
     <d v="2024-01-31T21:08:34"/>
     <n v="7"/>
     <n v="2"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1860,10 +1854,10 @@
     <d v="2024-01-31T21:09:22"/>
     <n v="3"/>
     <n v="3"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1888,10 +1882,10 @@
     <d v="2024-01-31T21:09:41"/>
     <n v="6"/>
     <n v="3"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1916,10 +1910,10 @@
     <d v="2024-01-31T21:10:33"/>
     <n v="7"/>
     <n v="3"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1944,10 +1938,10 @@
     <d v="2024-01-31T21:11:05"/>
     <n v="3"/>
     <n v="4"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -1972,10 +1966,10 @@
     <d v="2024-01-31T21:11:43"/>
     <n v="6"/>
     <n v="4"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2000,10 +1994,10 @@
     <d v="2024-01-31T21:13:00"/>
     <n v="7"/>
     <n v="4"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2028,10 +2022,10 @@
     <d v="2024-01-31T21:13:15"/>
     <n v="3"/>
     <n v="5"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2056,10 +2050,10 @@
     <d v="2024-01-31T21:13:34"/>
     <n v="4"/>
     <n v="5"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2084,10 +2078,10 @@
     <d v="2024-01-31T21:14:26"/>
     <n v="6"/>
     <n v="5"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2112,10 +2106,10 @@
     <d v="2024-01-31T21:15:06"/>
     <n v="7"/>
     <n v="5"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2140,10 +2134,10 @@
     <d v="2024-01-31T21:15:24"/>
     <n v="3"/>
     <n v="6"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2168,10 +2162,10 @@
     <d v="2024-01-31T21:16:21"/>
     <n v="6"/>
     <n v="6"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2196,10 +2190,10 @@
     <d v="2024-01-31T21:18:44"/>
     <n v="7"/>
     <n v="6"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2224,10 +2218,10 @@
     <d v="2024-01-31T21:20:44"/>
     <n v="3"/>
     <n v="7"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2252,10 +2246,10 @@
     <d v="2024-01-31T21:21:11"/>
     <n v="6"/>
     <n v="7"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2280,10 +2274,10 @@
     <d v="2024-01-31T21:22:15"/>
     <n v="7"/>
     <n v="7"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2308,10 +2302,10 @@
     <d v="2024-01-31T21:22:30"/>
     <n v="3"/>
     <n v="8"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2336,10 +2330,10 @@
     <d v="2024-01-31T21:22:44"/>
     <n v="6"/>
     <n v="8"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2364,10 +2358,10 @@
     <d v="2024-01-31T21:22:59"/>
     <n v="7"/>
     <n v="8"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2392,10 +2386,10 @@
     <d v="2024-01-31T21:24:54"/>
     <n v="3"/>
     <n v="9"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2420,10 +2414,10 @@
     <d v="2024-01-31T21:25:49"/>
     <n v="7"/>
     <n v="9"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2448,10 +2442,10 @@
     <d v="2024-01-31T21:26:05"/>
     <n v="3"/>
     <n v="10"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2476,10 +2470,10 @@
     <d v="2024-01-31T21:26:24"/>
     <n v="4"/>
     <n v="10"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2504,10 +2498,10 @@
     <d v="2024-01-31T21:28:17"/>
     <n v="6"/>
     <n v="10"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2532,10 +2526,10 @@
     <d v="2024-01-31T21:28:32"/>
     <n v="7"/>
     <n v="10"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2560,10 +2554,10 @@
     <d v="2024-01-31T21:28:57"/>
     <n v="3"/>
     <n v="11"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2588,10 +2582,10 @@
     <d v="2024-01-31T21:29:54"/>
     <n v="6"/>
     <n v="11"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2616,10 +2610,10 @@
     <d v="2024-01-31T21:30:50"/>
     <n v="7"/>
     <n v="11"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2644,10 +2638,10 @@
     <d v="2024-01-31T21:31:16"/>
     <n v="3"/>
     <n v="12"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2672,10 +2666,10 @@
     <d v="2024-01-31T21:33:49"/>
     <n v="6"/>
     <n v="12"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2700,10 +2694,10 @@
     <d v="2024-01-31T21:36:26"/>
     <n v="7"/>
     <n v="12"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2728,10 +2722,10 @@
     <d v="2024-01-31T21:37:30"/>
     <n v="3"/>
     <n v="13"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2756,10 +2750,10 @@
     <d v="2024-01-31T21:40:13"/>
     <n v="7"/>
     <n v="13"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2784,10 +2778,10 @@
     <d v="2024-01-31T21:40:42"/>
     <n v="3"/>
     <n v="14"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2812,10 +2806,10 @@
     <d v="2024-01-31T21:41:51"/>
     <n v="6"/>
     <n v="14"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2840,10 +2834,10 @@
     <d v="2024-01-31T21:42:16"/>
     <n v="7"/>
     <n v="14"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2868,10 +2862,10 @@
     <d v="2024-01-31T21:42:55"/>
     <n v="3"/>
     <n v="15"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2896,10 +2890,10 @@
     <d v="2024-01-31T21:49:03"/>
     <n v="7"/>
     <n v="15"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2924,10 +2918,10 @@
     <d v="2024-01-31T21:49:18"/>
     <n v="3"/>
     <n v="16"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2952,10 +2946,10 @@
     <d v="2024-01-31T21:52:59"/>
     <n v="6"/>
     <n v="16"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -2980,10 +2974,10 @@
     <d v="2024-01-31T21:53:19"/>
     <n v="7"/>
     <n v="16"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3008,10 +3002,10 @@
     <d v="2024-01-31T21:54:11"/>
     <n v="3"/>
     <n v="17"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3036,10 +3030,10 @@
     <d v="2024-01-31T22:00:57"/>
     <n v="3"/>
     <n v="18"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3064,10 +3058,10 @@
     <d v="2024-01-31T22:01:24"/>
     <n v="7"/>
     <n v="18"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3092,10 +3086,10 @@
     <d v="2024-01-31T22:02:47"/>
     <n v="3"/>
     <n v="19"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3120,10 +3114,10 @@
     <d v="2024-01-31T22:03:37"/>
     <n v="6"/>
     <n v="19"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3148,10 +3142,10 @@
     <d v="2024-01-31T22:04:14"/>
     <n v="7"/>
     <n v="19"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3176,10 +3170,10 @@
     <d v="2024-01-31T22:05:59"/>
     <n v="4"/>
     <n v="20"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3204,10 +3198,10 @@
     <d v="2024-01-31T22:06:29"/>
     <n v="7"/>
     <n v="20"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3232,10 +3226,10 @@
     <d v="2024-01-31T22:07:01"/>
     <n v="4"/>
     <n v="21"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3260,10 +3254,10 @@
     <d v="2024-01-31T22:07:16"/>
     <n v="7"/>
     <n v="21"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3288,10 +3282,10 @@
     <d v="2024-01-31T22:07:55"/>
     <n v="4"/>
     <n v="22"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3316,10 +3310,10 @@
     <d v="2024-01-31T22:09:17"/>
     <n v="7"/>
     <n v="22"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3344,10 +3338,10 @@
     <d v="2024-01-31T22:09:48"/>
     <n v="3"/>
     <n v="23"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3372,10 +3366,10 @@
     <d v="2024-01-31T22:10:35"/>
     <n v="4"/>
     <n v="23"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3400,10 +3394,10 @@
     <d v="2024-01-31T22:16:43"/>
     <n v="2"/>
     <n v="24"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3428,10 +3422,10 @@
     <d v="2024-01-31T22:17:23"/>
     <n v="4"/>
     <n v="24"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3456,10 +3450,10 @@
     <d v="2024-01-31T22:18:02"/>
     <n v="7"/>
     <n v="24"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3484,10 +3478,10 @@
     <d v="2024-01-31T22:18:14"/>
     <n v="4"/>
     <n v="25"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3512,10 +3506,10 @@
     <d v="2024-01-31T22:18:44"/>
     <n v="7"/>
     <n v="25"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3540,10 +3534,10 @@
     <d v="2024-01-31T22:19:06"/>
     <n v="4"/>
     <n v="26"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3568,10 +3562,10 @@
     <d v="2024-01-31T22:19:27"/>
     <n v="7"/>
     <n v="26"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3596,10 +3590,10 @@
     <d v="2024-01-31T22:19:41"/>
     <n v="4"/>
     <n v="27"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3624,10 +3618,10 @@
     <d v="2024-01-31T22:20:04"/>
     <n v="7"/>
     <n v="27"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3652,10 +3646,10 @@
     <d v="2024-01-31T22:20:18"/>
     <n v="4"/>
     <n v="28"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3680,10 +3674,10 @@
     <d v="2024-01-31T22:20:47"/>
     <n v="6"/>
     <n v="28"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3708,10 +3702,10 @@
     <d v="2024-01-31T22:21:16"/>
     <n v="7"/>
     <n v="28"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3736,10 +3730,10 @@
     <d v="2024-01-31T22:21:35"/>
     <n v="4"/>
     <n v="29"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3764,10 +3758,10 @@
     <d v="2024-01-31T22:22:28"/>
     <n v="7"/>
     <n v="29"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3792,10 +3786,10 @@
     <d v="2024-01-31T22:22:43"/>
     <n v="4"/>
     <n v="30"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3820,10 +3814,10 @@
     <d v="2024-01-31T22:24:54"/>
     <n v="7"/>
     <n v="30"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3848,10 +3842,10 @@
     <d v="2024-01-31T22:25:33"/>
     <n v="4"/>
     <n v="31"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3876,10 +3870,10 @@
     <d v="2024-01-31T22:25:48"/>
     <n v="7"/>
     <n v="31"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3904,10 +3898,10 @@
     <d v="2024-01-31T22:26:24"/>
     <n v="4"/>
     <n v="32"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3932,10 +3926,10 @@
     <d v="2024-01-31T22:27:33"/>
     <n v="7"/>
     <n v="32"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3960,10 +3954,10 @@
     <d v="2024-01-31T22:27:48"/>
     <n v="4"/>
     <n v="33"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -3988,10 +3982,10 @@
     <d v="2024-01-31T22:28:23"/>
     <n v="7"/>
     <n v="33"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4016,10 +4010,10 @@
     <d v="2024-01-31T22:28:40"/>
     <n v="4"/>
     <n v="34"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4044,10 +4038,10 @@
     <d v="2024-01-31T22:32:34"/>
     <n v="4"/>
     <n v="35"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4072,10 +4066,10 @@
     <d v="2024-01-31T22:36:21"/>
     <n v="7"/>
     <n v="35"/>
-    <x v="3"/>
+    <n v="2"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4100,10 +4094,10 @@
     <d v="2024-01-31T22:36:49"/>
     <n v="4"/>
     <n v="36"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4128,10 +4122,10 @@
     <d v="2024-01-31T22:37:41"/>
     <n v="7"/>
     <n v="36"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4156,10 +4150,10 @@
     <d v="2024-01-31T22:38:08"/>
     <n v="4"/>
     <n v="37"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4184,10 +4178,10 @@
     <d v="2024-01-31T22:44:13"/>
     <n v="4"/>
     <n v="38"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4212,10 +4206,10 @@
     <d v="2024-01-31T22:44:29"/>
     <n v="7"/>
     <n v="38"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4240,10 +4234,10 @@
     <d v="2024-01-31T22:46:36"/>
     <n v="4"/>
     <n v="39"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4268,10 +4262,10 @@
     <d v="2024-01-31T22:48:12"/>
     <n v="7"/>
     <n v="39"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4296,10 +4290,10 @@
     <d v="2024-01-31T22:48:52"/>
     <n v="4"/>
     <n v="40"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4324,10 +4318,10 @@
     <d v="2024-01-31T22:49:06"/>
     <n v="7"/>
     <n v="40"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4352,10 +4346,10 @@
     <d v="2024-01-31T22:49:46"/>
     <n v="4"/>
     <n v="41"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4380,10 +4374,10 @@
     <d v="2024-01-31T22:50:53"/>
     <n v="7"/>
     <n v="41"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4408,10 +4402,10 @@
     <d v="2024-01-31T22:51:08"/>
     <n v="4"/>
     <n v="42"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4436,10 +4430,10 @@
     <d v="2024-01-31T22:51:37"/>
     <n v="7"/>
     <n v="42"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4464,10 +4458,10 @@
     <d v="2024-01-31T22:52:16"/>
     <n v="4"/>
     <n v="43"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4492,10 +4486,10 @@
     <d v="2024-01-31T22:53:35"/>
     <n v="7"/>
     <n v="43"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4520,10 +4514,10 @@
     <d v="2024-01-31T22:54:26"/>
     <n v="4"/>
     <n v="44"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4548,10 +4542,10 @@
     <d v="2024-01-31T22:55:30"/>
     <n v="7"/>
     <n v="44"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4576,10 +4570,10 @@
     <d v="2024-01-31T22:55:53"/>
     <n v="4"/>
     <n v="45"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4604,10 +4598,10 @@
     <d v="2024-01-31T22:56:12"/>
     <n v="7"/>
     <n v="45"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4632,10 +4626,10 @@
     <d v="2024-01-31T22:57:03"/>
     <n v="3"/>
     <n v="46"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4660,10 +4654,10 @@
     <d v="2024-01-31T22:57:31"/>
     <n v="4"/>
     <n v="46"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4688,10 +4682,10 @@
     <d v="2024-01-31T22:58:01"/>
     <n v="6"/>
     <n v="46"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4716,10 +4710,10 @@
     <d v="2024-01-31T22:59:34"/>
     <n v="7"/>
     <n v="46"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4744,10 +4738,10 @@
     <d v="2024-01-31T23:00:03"/>
     <n v="4"/>
     <n v="47"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4772,10 +4766,10 @@
     <d v="2024-01-31T23:01:58"/>
     <n v="7"/>
     <n v="47"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4800,10 +4794,10 @@
     <d v="2024-01-31T23:02:19"/>
     <n v="4"/>
     <n v="48"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4828,10 +4822,10 @@
     <d v="2024-01-31T23:02:47"/>
     <n v="7"/>
     <n v="48"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4856,10 +4850,10 @@
     <d v="2024-01-31T23:03:42"/>
     <n v="4"/>
     <n v="49"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4884,10 +4878,10 @@
     <d v="2024-01-31T23:04:51"/>
     <n v="7"/>
     <n v="49"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4912,10 +4906,10 @@
     <d v="2024-01-31T23:05:45"/>
     <n v="4"/>
     <n v="50"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4940,10 +4934,10 @@
     <d v="2024-01-31T23:06:25"/>
     <n v="7"/>
     <n v="50"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4968,10 +4962,10 @@
     <d v="2024-01-31T23:07:01"/>
     <n v="4"/>
     <n v="51"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -4996,10 +4990,10 @@
     <d v="2024-01-31T23:10:18"/>
     <n v="7"/>
     <n v="51"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5024,10 +5018,10 @@
     <d v="2024-01-31T23:11:09"/>
     <n v="4"/>
     <n v="52"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5052,10 +5046,10 @@
     <d v="2024-01-31T23:13:03"/>
     <n v="7"/>
     <n v="52"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5080,10 +5074,10 @@
     <d v="2024-01-31T23:13:48"/>
     <n v="4"/>
     <n v="53"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5108,10 +5102,10 @@
     <d v="2024-01-31T23:14:04"/>
     <n v="7"/>
     <n v="53"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5136,10 +5130,10 @@
     <d v="2024-01-31T23:14:36"/>
     <n v="4"/>
     <n v="54"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5164,10 +5158,10 @@
     <d v="2024-01-31T23:18:03"/>
     <n v="7"/>
     <n v="54"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5192,10 +5186,10 @@
     <d v="2024-01-31T23:18:52"/>
     <n v="2"/>
     <n v="55"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5220,10 +5214,10 @@
     <d v="2024-01-31T23:19:35"/>
     <n v="4"/>
     <n v="55"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5248,10 +5242,10 @@
     <d v="2024-01-31T23:20:15"/>
     <n v="7"/>
     <n v="55"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5276,10 +5270,10 @@
     <d v="2024-01-31T23:20:33"/>
     <n v="4"/>
     <n v="56"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5304,10 +5298,10 @@
     <d v="2024-01-31T23:21:42"/>
     <n v="7"/>
     <n v="56"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5332,10 +5326,10 @@
     <d v="2024-01-31T23:23:01"/>
     <n v="4"/>
     <n v="57"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5360,10 +5354,10 @@
     <d v="2024-01-31T23:25:11"/>
     <n v="7"/>
     <n v="57"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5388,10 +5382,10 @@
     <d v="2024-01-31T23:25:25"/>
     <n v="4"/>
     <n v="58"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5416,10 +5410,10 @@
     <d v="2024-01-31T23:27:20"/>
     <n v="7"/>
     <n v="58"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5444,10 +5438,10 @@
     <d v="2024-01-31T23:27:54"/>
     <n v="4"/>
     <n v="59"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5472,10 +5466,10 @@
     <d v="2024-01-31T23:28:56"/>
     <n v="7"/>
     <n v="59"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5500,10 +5494,10 @@
     <d v="2024-01-31T23:29:30"/>
     <n v="4"/>
     <n v="60"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5528,10 +5522,10 @@
     <d v="2024-01-31T23:29:41"/>
     <n v="7"/>
     <n v="60"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5556,10 +5550,10 @@
     <d v="2024-01-31T23:30:53"/>
     <n v="4"/>
     <n v="61"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5584,10 +5578,10 @@
     <d v="2024-01-31T23:31:32"/>
     <n v="7"/>
     <n v="61"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5612,10 +5606,10 @@
     <d v="2024-01-31T23:32:25"/>
     <n v="4"/>
     <n v="62"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5640,10 +5634,10 @@
     <d v="2024-01-31T23:33:50"/>
     <n v="7"/>
     <n v="62"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5668,10 +5662,10 @@
     <d v="2024-01-31T23:34:20"/>
     <n v="4"/>
     <n v="63"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5696,10 +5690,10 @@
     <d v="2024-01-31T23:34:42"/>
     <n v="7"/>
     <n v="63"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5724,10 +5718,10 @@
     <d v="2024-01-31T23:36:36"/>
     <n v="4"/>
     <n v="64"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5752,10 +5746,10 @@
     <d v="2024-01-31T23:37:23"/>
     <n v="7"/>
     <n v="64"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5780,10 +5774,10 @@
     <d v="2024-01-31T23:37:53"/>
     <n v="4"/>
     <n v="65"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5808,10 +5802,10 @@
     <d v="2024-01-31T23:38:22"/>
     <n v="7"/>
     <n v="65"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5836,10 +5830,10 @@
     <d v="2024-01-31T23:39:04"/>
     <n v="4"/>
     <n v="66"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5864,10 +5858,10 @@
     <d v="2024-01-31T23:39:25"/>
     <n v="7"/>
     <n v="66"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5892,10 +5886,10 @@
     <d v="2024-01-31T23:40:18"/>
     <n v="4"/>
     <n v="67"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5920,10 +5914,10 @@
     <d v="2024-01-31T23:40:57"/>
     <n v="7"/>
     <n v="67"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5948,10 +5942,10 @@
     <d v="2024-01-31T23:42:12"/>
     <n v="4"/>
     <n v="68"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -5976,10 +5970,10 @@
     <d v="2024-01-31T23:42:38"/>
     <n v="7"/>
     <n v="68"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6004,10 +5998,10 @@
     <d v="2024-01-31T23:43:17"/>
     <n v="4"/>
     <n v="69"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6032,10 +6026,10 @@
     <d v="2024-01-31T23:43:57"/>
     <n v="7"/>
     <n v="69"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6060,10 +6054,10 @@
     <d v="2024-01-31T23:44:08"/>
     <n v="7"/>
     <n v="70"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6088,10 +6082,10 @@
     <d v="2024-01-31T23:44:38"/>
     <n v="7"/>
     <n v="71"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6116,10 +6110,10 @@
     <d v="2024-01-31T23:46:03"/>
     <n v="7"/>
     <n v="72"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6144,10 +6138,10 @@
     <d v="2024-01-31T23:47:01"/>
     <n v="7"/>
     <n v="73"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6172,10 +6166,10 @@
     <d v="2024-01-31T23:47:52"/>
     <n v="7"/>
     <n v="74"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6200,10 +6194,10 @@
     <d v="2024-01-31T23:48:18"/>
     <n v="7"/>
     <n v="75"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6228,10 +6222,10 @@
     <d v="2024-01-31T23:49:52"/>
     <n v="7"/>
     <n v="76"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Human-Mid"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6256,10 +6250,10 @@
     <d v="2024-01-31T23:50:03"/>
     <n v="7"/>
     <n v="77"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6284,10 +6278,10 @@
     <d v="2024-01-31T23:50:43"/>
     <n v="7"/>
     <n v="78"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6312,10 +6306,10 @@
     <d v="2024-01-31T23:51:18"/>
     <n v="7"/>
     <n v="79"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6340,10 +6334,10 @@
     <d v="2024-01-31T23:52:08"/>
     <n v="2"/>
     <n v="80"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6368,10 +6362,10 @@
     <d v="2024-01-31T23:52:52"/>
     <n v="7"/>
     <n v="80"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6396,16 +6390,16 @@
     <d v="2024-01-31T23:54:17"/>
     <n v="2"/>
     <n v="81"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
     <n v="0"/>
     <n v="0"/>
-    <n v="1"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -6424,10 +6418,10 @@
     <d v="2024-01-31T23:54:56"/>
     <n v="4"/>
     <n v="81"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6452,10 +6446,10 @@
     <d v="2024-01-31T23:57:04"/>
     <n v="7"/>
     <n v="81"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6480,10 +6474,10 @@
     <d v="2024-01-31T23:57:58"/>
     <n v="2"/>
     <n v="82"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6508,10 +6502,10 @@
     <d v="2024-02-01T00:01:24"/>
     <n v="2"/>
     <n v="83"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6536,10 +6530,10 @@
     <d v="2024-02-01T00:01:52"/>
     <n v="3"/>
     <n v="83"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6564,10 +6558,10 @@
     <d v="2024-02-01T00:02:13"/>
     <n v="7"/>
     <n v="83"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6592,10 +6586,10 @@
     <d v="2024-02-01T00:02:46"/>
     <n v="2"/>
     <n v="84"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6620,10 +6614,10 @@
     <d v="2024-02-01T00:03:01"/>
     <n v="7"/>
     <n v="84"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6648,10 +6642,10 @@
     <d v="2024-02-01T00:03:15"/>
     <n v="2"/>
     <n v="85"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-13B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6676,10 +6670,10 @@
     <d v="2024-02-01T00:04:35"/>
     <n v="2"/>
     <n v="86"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-High"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6704,10 +6698,10 @@
     <d v="2024-02-01T00:05:39"/>
     <n v="2"/>
     <n v="87"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Vicuna-33B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6732,10 +6726,10 @@
     <d v="2024-02-01T00:06:13"/>
     <n v="2"/>
     <n v="88"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6760,10 +6754,10 @@
     <d v="2024-02-01T00:07:30"/>
     <n v="2"/>
     <n v="89"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6788,10 +6782,10 @@
     <d v="2024-02-01T00:08:57"/>
     <n v="2"/>
     <n v="90"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Human-Low"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6816,10 +6810,10 @@
     <d v="2024-02-01T00:11:54"/>
     <n v="2"/>
     <n v="91"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Human-Mid"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6844,10 +6838,10 @@
     <d v="2024-02-01T00:12:17"/>
     <n v="7"/>
     <n v="91"/>
-    <x v="0"/>
+    <n v="5"/>
     <x v="0"/>
     <s v="Human-Mid"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6872,10 +6866,10 @@
     <d v="2024-02-01T00:12:29"/>
     <n v="2"/>
     <n v="92"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6900,10 +6894,10 @@
     <d v="2024-02-01T00:12:45"/>
     <n v="2"/>
     <n v="93"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6928,10 +6922,10 @@
     <d v="2024-02-01T00:13:10"/>
     <n v="2"/>
     <n v="94"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6956,10 +6950,10 @@
     <d v="2024-02-01T00:13:50"/>
     <n v="2"/>
     <n v="95"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -6984,10 +6978,10 @@
     <d v="2024-02-01T00:15:19"/>
     <n v="7"/>
     <n v="95"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-7B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -7012,10 +7006,10 @@
     <d v="2024-02-01T00:16:24"/>
     <n v="2"/>
     <n v="96"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -7040,10 +7034,10 @@
     <d v="2024-02-01T00:16:47"/>
     <n v="7"/>
     <n v="96"/>
-    <x v="1"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -7068,10 +7062,10 @@
     <d v="2024-02-01T00:18:06"/>
     <n v="2"/>
     <n v="97"/>
-    <x v="4"/>
+    <n v="3"/>
     <x v="1"/>
     <s v="Llama-2-70B"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -7096,10 +7090,10 @@
     <d v="2024-02-01T00:18:29"/>
     <n v="2"/>
     <n v="98"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="GPT-4"/>
-    <x v="0"/>
+    <s v="LLM"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
   <r>
@@ -7124,17 +7118,17 @@
     <d v="2024-02-01T00:20:06"/>
     <n v="2"/>
     <n v="99"/>
-    <x v="2"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="Human-Mid"/>
-    <x v="1"/>
+    <s v="Human"/>
     <s v="TheBloke/Mixtral-8x7B-Instruct-v0.1-GPTQ"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -7158,15 +7152,7 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
@@ -7174,12 +7160,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -7576,406 +7557,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE73AC8C-CD99-4617-B208-1294022C5E43}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="I1" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="7">
         <v>57</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="7">
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="7">
         <v>7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="7">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <f>G3/SUM(F3:G3)</f>
+        <v>0.89393939393939392</v>
+      </c>
+      <c r="I3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="7">
         <v>82</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="7">
         <v>44</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="7">
         <v>19</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="7">
         <v>24</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>247</v>
       </c>
       <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <v>9</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>249</v>
       </c>
       <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="7">
         <v>11</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7985,17 +8027,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W200"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8075,7 +8118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8153,7 +8196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -8218,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W66" si="0">IF(V3&gt;3, "Human", "LLM")</f>
+        <f>IF(V3&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X3" t="s">
@@ -8231,7 +8274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -8296,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V4&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X4" t="s">
@@ -8309,7 +8352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -8374,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V5&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X5" t="s">
@@ -8387,7 +8430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -8452,7 +8495,7 @@
         <v>4</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V6&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X6" t="s">
@@ -8465,7 +8508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -8530,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V7&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X7" t="s">
@@ -8543,7 +8586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -8608,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V8&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X8" t="s">
@@ -8621,7 +8664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -8686,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V9&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X9" t="s">
@@ -8699,7 +8742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -8764,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V10&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X10" t="s">
@@ -8777,7 +8820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -8842,7 +8885,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V11&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X11" t="s">
@@ -8855,7 +8898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -8920,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V12&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X12" t="s">
@@ -8933,7 +8976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -8998,7 +9041,7 @@
         <v>2</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V13&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X13" t="s">
@@ -9011,7 +9054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -9076,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V14&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X14" t="s">
@@ -9089,7 +9132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -9154,7 +9197,7 @@
         <v>3</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V15&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X15" t="s">
@@ -9167,7 +9210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -9232,7 +9275,7 @@
         <v>2</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V16&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X16" t="s">
@@ -9245,7 +9288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -9310,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V17&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X17" t="s">
@@ -9323,7 +9366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -9388,7 +9431,7 @@
         <v>5</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V18&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X18" t="s">
@@ -9401,7 +9444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -9466,7 +9509,7 @@
         <v>5</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V19&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X19" t="s">
@@ -9479,7 +9522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -9544,7 +9587,7 @@
         <v>5</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V20&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X20" t="s">
@@ -9557,7 +9600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -9622,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V21&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X21" t="s">
@@ -9635,7 +9678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -9700,7 +9743,7 @@
         <v>4</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V22&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X22" t="s">
@@ -9713,7 +9756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -9778,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V23&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X23" t="s">
@@ -9791,7 +9834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -9856,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V24&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X24" t="s">
@@ -9869,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -9934,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V25&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X25" t="s">
@@ -9947,7 +9990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -10012,7 +10055,7 @@
         <v>2</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V26&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X26" t="s">
@@ -10025,7 +10068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -10090,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V27&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X27" t="s">
@@ -10103,7 +10146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -10168,7 +10211,7 @@
         <v>4</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V28&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X28" t="s">
@@ -10181,7 +10224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -10246,7 +10289,7 @@
         <v>4</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V29&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X29" t="s">
@@ -10259,7 +10302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -10324,7 +10367,7 @@
         <v>5</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V30&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X30" t="s">
@@ -10337,7 +10380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -10402,7 +10445,7 @@
         <v>4</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V31&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X31" t="s">
@@ -10415,7 +10458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -10480,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V32&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X32" t="s">
@@ -10493,7 +10536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -10558,7 +10601,7 @@
         <v>5</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V33&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X33" t="s">
@@ -10571,7 +10614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -10636,7 +10679,7 @@
         <v>4</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V34&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X34" t="s">
@@ -10649,7 +10692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -10714,7 +10757,7 @@
         <v>5</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V35&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X35" t="s">
@@ -10727,7 +10770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -10792,7 +10835,7 @@
         <v>4</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V36&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X36" t="s">
@@ -10805,7 +10848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -10870,7 +10913,7 @@
         <v>3</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V37&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X37" t="s">
@@ -10883,7 +10926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -10948,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V38&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X38" t="s">
@@ -10961,7 +11004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -11026,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V39&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X39" t="s">
@@ -11039,7 +11082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -11104,7 +11147,7 @@
         <v>4</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V40&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X40" t="s">
@@ -11117,7 +11160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -11182,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V41&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X41" t="s">
@@ -11195,7 +11238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -11260,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V42&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X42" t="s">
@@ -11273,7 +11316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -11338,7 +11381,7 @@
         <v>4</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V43&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X43" t="s">
@@ -11351,7 +11394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -11416,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V44&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X44" t="s">
@@ -11429,7 +11472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -11494,7 +11537,7 @@
         <v>4</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V45&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X45" t="s">
@@ -11507,7 +11550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -11572,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V46&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X46" t="s">
@@ -11585,7 +11628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -11650,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V47&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X47" t="s">
@@ -11663,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -11728,7 +11771,7 @@
         <v>4</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V48&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X48" t="s">
@@ -11741,7 +11784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -11806,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V49&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X49" t="s">
@@ -11819,7 +11862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -11884,7 +11927,7 @@
         <v>4</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V50&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X50" t="s">
@@ -11897,7 +11940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -11962,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V51&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X51" t="s">
@@ -11975,7 +12018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -12040,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V52&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X52" t="s">
@@ -12053,7 +12096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -12118,7 +12161,7 @@
         <v>3</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V53&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X53" t="s">
@@ -12131,7 +12174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -12196,7 +12239,7 @@
         <v>5</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V54&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X54" t="s">
@@ -12209,7 +12252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -12274,7 +12317,7 @@
         <v>4</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V55&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X55" t="s">
@@ -12287,7 +12330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -12352,7 +12395,7 @@
         <v>4</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V56&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X56" t="s">
@@ -12365,7 +12408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -12430,7 +12473,7 @@
         <v>2</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V57&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X57" t="s">
@@ -12443,7 +12486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -12508,7 +12551,7 @@
         <v>5</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V58&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X58" t="s">
@@ -12521,7 +12564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -12586,7 +12629,7 @@
         <v>4</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V59&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X59" t="s">
@@ -12599,7 +12642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -12664,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V60&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X60" t="s">
@@ -12677,7 +12720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -12742,7 +12785,7 @@
         <v>2</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V61&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X61" t="s">
@@ -12755,7 +12798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -12820,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V62&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X62" t="s">
@@ -12833,7 +12876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -12898,7 +12941,7 @@
         <v>4</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V63&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X63" t="s">
@@ -12911,7 +12954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -12976,7 +13019,7 @@
         <v>3</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V64&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X64" t="s">
@@ -12989,7 +13032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -13054,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V65&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X65" t="s">
@@ -13067,7 +13110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -13132,7 +13175,7 @@
         <v>3</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V66&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X66" t="s">
@@ -13145,7 +13188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -13210,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W130" si="1">IF(V67&gt;3, "Human", "LLM")</f>
+        <f>IF(V67&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X67" t="s">
@@ -13223,7 +13266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -13288,7 +13331,7 @@
         <v>4</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V68&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X68" t="s">
@@ -13301,7 +13344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -13366,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V69&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X69" t="s">
@@ -13379,7 +13422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -13444,7 +13487,7 @@
         <v>5</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V70&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X70" t="s">
@@ -13457,7 +13500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -13522,7 +13565,7 @@
         <v>2</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V71&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X71" t="s">
@@ -13535,7 +13578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -13600,7 +13643,7 @@
         <v>4</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V72&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X72" t="s">
@@ -13613,7 +13656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -13678,7 +13721,7 @@
         <v>5</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V73&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X73" t="s">
@@ -13691,7 +13734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -13756,7 +13799,7 @@
         <v>5</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V74&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X74" t="s">
@@ -13769,7 +13812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -13834,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V75&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X75" t="s">
@@ -13847,7 +13890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -13912,7 +13955,7 @@
         <v>5</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V76&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X76" t="s">
@@ -13925,7 +13968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -13990,7 +14033,7 @@
         <v>3</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V77&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X77" t="s">
@@ -14003,7 +14046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -14068,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V78&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X78" t="s">
@@ -14081,7 +14124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -14146,7 +14189,7 @@
         <v>4</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V79&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X79" t="s">
@@ -14159,7 +14202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -14224,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="W80" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V80&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X80" t="s">
@@ -14237,7 +14280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -14302,7 +14345,7 @@
         <v>4</v>
       </c>
       <c r="W81" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V81&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X81" t="s">
@@ -14315,7 +14358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -14380,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="W82" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V82&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X82" t="s">
@@ -14393,7 +14436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -14458,7 +14501,7 @@
         <v>5</v>
       </c>
       <c r="W83" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V83&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X83" t="s">
@@ -14471,7 +14514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -14536,7 +14579,7 @@
         <v>4</v>
       </c>
       <c r="W84" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V84&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X84" t="s">
@@ -14549,7 +14592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -14614,7 +14657,7 @@
         <v>5</v>
       </c>
       <c r="W85" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V85&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X85" t="s">
@@ -14627,7 +14670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -14692,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="W86" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V86&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X86" t="s">
@@ -14705,7 +14748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -14770,7 +14813,7 @@
         <v>5</v>
       </c>
       <c r="W87" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V87&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X87" t="s">
@@ -14783,7 +14826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -14848,7 +14891,7 @@
         <v>3</v>
       </c>
       <c r="W88" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V88&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X88" t="s">
@@ -14861,7 +14904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -14926,7 +14969,7 @@
         <v>5</v>
       </c>
       <c r="W89" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V89&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X89" t="s">
@@ -14939,7 +14982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -15004,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="W90" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V90&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X90" t="s">
@@ -15017,7 +15060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -15082,7 +15125,7 @@
         <v>2</v>
       </c>
       <c r="W91" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V91&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X91" t="s">
@@ -15095,7 +15138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -15160,7 +15203,7 @@
         <v>3</v>
       </c>
       <c r="W92" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V92&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X92" t="s">
@@ -15173,7 +15216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -15238,7 +15281,7 @@
         <v>3</v>
       </c>
       <c r="W93" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V93&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X93" t="s">
@@ -15251,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -15316,7 +15359,7 @@
         <v>4</v>
       </c>
       <c r="W94" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V94&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X94" t="s">
@@ -15329,7 +15372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -15394,7 +15437,7 @@
         <v>4</v>
       </c>
       <c r="W95" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V95&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X95" t="s">
@@ -15407,7 +15450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -15472,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="W96" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V96&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X96" t="s">
@@ -15485,7 +15528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -15550,7 +15593,7 @@
         <v>4</v>
       </c>
       <c r="W97" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V97&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X97" t="s">
@@ -15563,7 +15606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -15628,7 +15671,7 @@
         <v>5</v>
       </c>
       <c r="W98" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V98&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X98" t="s">
@@ -15641,7 +15684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -15706,7 +15749,7 @@
         <v>5</v>
       </c>
       <c r="W99" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V99&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X99" t="s">
@@ -15719,7 +15762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -15784,7 +15827,7 @@
         <v>5</v>
       </c>
       <c r="W100" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V100&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X100" t="s">
@@ -15797,7 +15840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -15862,7 +15905,7 @@
         <v>5</v>
       </c>
       <c r="W101" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V101&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X101" t="s">
@@ -15875,7 +15918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -15940,7 +15983,7 @@
         <v>5</v>
       </c>
       <c r="W102" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V102&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X102" t="s">
@@ -15953,7 +15996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -16018,7 +16061,7 @@
         <v>5</v>
       </c>
       <c r="W103" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V103&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X103" t="s">
@@ -16031,7 +16074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -16096,7 +16139,7 @@
         <v>5</v>
       </c>
       <c r="W104" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V104&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X104" t="s">
@@ -16109,7 +16152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -16174,7 +16217,7 @@
         <v>5</v>
       </c>
       <c r="W105" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V105&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X105" t="s">
@@ -16187,7 +16230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -16252,7 +16295,7 @@
         <v>5</v>
       </c>
       <c r="W106" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V106&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X106" t="s">
@@ -16265,7 +16308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -16330,7 +16373,7 @@
         <v>5</v>
       </c>
       <c r="W107" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V107&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X107" t="s">
@@ -16343,7 +16386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -16408,7 +16451,7 @@
         <v>5</v>
       </c>
       <c r="W108" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V108&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X108" t="s">
@@ -16421,7 +16464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -16486,7 +16529,7 @@
         <v>4</v>
       </c>
       <c r="W109" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V109&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X109" t="s">
@@ -16499,7 +16542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -16564,7 +16607,7 @@
         <v>5</v>
       </c>
       <c r="W110" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V110&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X110" t="s">
@@ -16577,7 +16620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -16642,7 +16685,7 @@
         <v>4</v>
       </c>
       <c r="W111" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V111&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X111" t="s">
@@ -16655,7 +16698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -16720,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="W112" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V112&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X112" t="s">
@@ -16733,7 +16776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -16798,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="W113" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V113&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X113" t="s">
@@ -16811,7 +16854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -16876,7 +16919,7 @@
         <v>5</v>
       </c>
       <c r="W114" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V114&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X114" t="s">
@@ -16889,7 +16932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -16954,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="W115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V115&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X115" t="s">
@@ -16967,7 +17010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -17032,7 +17075,7 @@
         <v>4</v>
       </c>
       <c r="W116" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V116&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X116" t="s">
@@ -17045,7 +17088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -17110,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="W117" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V117&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X117" t="s">
@@ -17123,7 +17166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -17188,7 +17231,7 @@
         <v>5</v>
       </c>
       <c r="W118" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V118&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X118" t="s">
@@ -17201,7 +17244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -17266,7 +17309,7 @@
         <v>1</v>
       </c>
       <c r="W119" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V119&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X119" t="s">
@@ -17279,7 +17322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -17344,7 +17387,7 @@
         <v>4</v>
       </c>
       <c r="W120" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V120&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X120" t="s">
@@ -17357,7 +17400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -17422,7 +17465,7 @@
         <v>5</v>
       </c>
       <c r="W121" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V121&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X121" t="s">
@@ -17435,7 +17478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -17500,7 +17543,7 @@
         <v>4</v>
       </c>
       <c r="W122" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V122&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X122" t="s">
@@ -17513,7 +17556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -17578,7 +17621,7 @@
         <v>1</v>
       </c>
       <c r="W123" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V123&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X123" t="s">
@@ -17591,7 +17634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -17656,7 +17699,7 @@
         <v>3</v>
       </c>
       <c r="W124" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V124&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X124" t="s">
@@ -17669,7 +17712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -17734,7 +17777,7 @@
         <v>5</v>
       </c>
       <c r="W125" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V125&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X125" t="s">
@@ -17747,7 +17790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -17812,7 +17855,7 @@
         <v>4</v>
       </c>
       <c r="W126" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V126&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X126" t="s">
@@ -17825,7 +17868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -17890,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="W127" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V127&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X127" t="s">
@@ -17903,7 +17946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -17968,7 +18011,7 @@
         <v>4</v>
       </c>
       <c r="W128" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V128&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X128" t="s">
@@ -17981,7 +18024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -18046,7 +18089,7 @@
         <v>3</v>
       </c>
       <c r="W129" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V129&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X129" t="s">
@@ -18059,7 +18102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -18124,7 +18167,7 @@
         <v>4</v>
       </c>
       <c r="W130" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V130&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X130" t="s">
@@ -18137,7 +18180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -18202,7 +18245,7 @@
         <v>5</v>
       </c>
       <c r="W131" t="str">
-        <f t="shared" ref="W131:W194" si="2">IF(V131&gt;3, "Human", "LLM")</f>
+        <f>IF(V131&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X131" t="s">
@@ -18215,7 +18258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -18280,7 +18323,7 @@
         <v>1</v>
       </c>
       <c r="W132" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V132&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X132" t="s">
@@ -18293,7 +18336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -18358,7 +18401,7 @@
         <v>4</v>
       </c>
       <c r="W133" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V133&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X133" t="s">
@@ -18371,7 +18414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -18436,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="W134" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V134&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X134" t="s">
@@ -18449,7 +18492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -18514,7 +18557,7 @@
         <v>5</v>
       </c>
       <c r="W135" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V135&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X135" t="s">
@@ -18527,7 +18570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -18592,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="W136" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V136&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X136" t="s">
@@ -18605,7 +18648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -18670,7 +18713,7 @@
         <v>5</v>
       </c>
       <c r="W137" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V137&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X137" t="s">
@@ -18683,7 +18726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -18748,7 +18791,7 @@
         <v>1</v>
       </c>
       <c r="W138" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V138&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X138" t="s">
@@ -18761,7 +18804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -18826,7 +18869,7 @@
         <v>5</v>
       </c>
       <c r="W139" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V139&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X139" t="s">
@@ -18839,7 +18882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>0</v>
       </c>
@@ -18904,7 +18947,7 @@
         <v>5</v>
       </c>
       <c r="W140" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V140&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X140" t="s">
@@ -18917,7 +18960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -18982,7 +19025,7 @@
         <v>5</v>
       </c>
       <c r="W141" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V141&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X141" t="s">
@@ -18995,7 +19038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>0</v>
       </c>
@@ -19060,7 +19103,7 @@
         <v>1</v>
       </c>
       <c r="W142" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V142&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X142" t="s">
@@ -19073,7 +19116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -19138,7 +19181,7 @@
         <v>5</v>
       </c>
       <c r="W143" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V143&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X143" t="s">
@@ -19151,7 +19194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -19216,7 +19259,7 @@
         <v>5</v>
       </c>
       <c r="W144" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V144&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X144" t="s">
@@ -19229,7 +19272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -19294,7 +19337,7 @@
         <v>5</v>
       </c>
       <c r="W145" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V145&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X145" t="s">
@@ -19307,7 +19350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -19372,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="W146" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V146&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X146" t="s">
@@ -19385,7 +19428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -19450,7 +19493,7 @@
         <v>5</v>
       </c>
       <c r="W147" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V147&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X147" t="s">
@@ -19463,7 +19506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -19528,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="W148" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V148&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X148" t="s">
@@ -19541,7 +19584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>0</v>
       </c>
@@ -19606,7 +19649,7 @@
         <v>4</v>
       </c>
       <c r="W149" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V149&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X149" t="s">
@@ -19619,7 +19662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>0</v>
       </c>
@@ -19684,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="W150" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V150&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X150" t="s">
@@ -19697,7 +19740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>0</v>
       </c>
@@ -19762,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="W151" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V151&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X151" t="s">
@@ -19775,7 +19818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -19840,7 +19883,7 @@
         <v>1</v>
       </c>
       <c r="W152" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V152&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X152" t="s">
@@ -19853,7 +19896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -19918,7 +19961,7 @@
         <v>4</v>
       </c>
       <c r="W153" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V153&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X153" t="s">
@@ -19931,7 +19974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -19996,7 +20039,7 @@
         <v>5</v>
       </c>
       <c r="W154" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V154&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X154" t="s">
@@ -20009,7 +20052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -20074,7 +20117,7 @@
         <v>4</v>
       </c>
       <c r="W155" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V155&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X155" t="s">
@@ -20087,7 +20130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -20152,7 +20195,7 @@
         <v>5</v>
       </c>
       <c r="W156" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V156&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X156" t="s">
@@ -20165,7 +20208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -20230,7 +20273,7 @@
         <v>4</v>
       </c>
       <c r="W157" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V157&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X157" t="s">
@@ -20243,7 +20286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -20308,7 +20351,7 @@
         <v>1</v>
       </c>
       <c r="W158" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V158&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X158" t="s">
@@ -20321,7 +20364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -20386,7 +20429,7 @@
         <v>4</v>
       </c>
       <c r="W159" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V159&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X159" t="s">
@@ -20399,7 +20442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -20464,7 +20507,7 @@
         <v>5</v>
       </c>
       <c r="W160" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V160&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X160" t="s">
@@ -20477,7 +20520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -20542,7 +20585,7 @@
         <v>4</v>
       </c>
       <c r="W161" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V161&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X161" t="s">
@@ -20555,7 +20598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -20620,7 +20663,7 @@
         <v>4</v>
       </c>
       <c r="W162" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V162&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X162" t="s">
@@ -20633,7 +20676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -20698,7 +20741,7 @@
         <v>4</v>
       </c>
       <c r="W163" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V163&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X163" t="s">
@@ -20711,7 +20754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -20776,7 +20819,7 @@
         <v>4</v>
       </c>
       <c r="W164" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V164&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X164" t="s">
@@ -20789,7 +20832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -20854,7 +20897,7 @@
         <v>4</v>
       </c>
       <c r="W165" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V165&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X165" t="s">
@@ -20867,7 +20910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -20932,7 +20975,7 @@
         <v>4</v>
       </c>
       <c r="W166" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V166&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X166" t="s">
@@ -20945,7 +20988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -21010,7 +21053,7 @@
         <v>4</v>
       </c>
       <c r="W167" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V167&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X167" t="s">
@@ -21023,7 +21066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -21088,7 +21131,7 @@
         <v>3</v>
       </c>
       <c r="W168" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V168&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X168" t="s">
@@ -21101,7 +21144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -21166,7 +21209,7 @@
         <v>4</v>
       </c>
       <c r="W169" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V169&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X169" t="s">
@@ -21179,7 +21222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -21244,7 +21287,7 @@
         <v>4</v>
       </c>
       <c r="W170" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V170&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X170" t="s">
@@ -21257,7 +21300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -21322,7 +21365,7 @@
         <v>4</v>
       </c>
       <c r="W171" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V171&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X171" t="s">
@@ -21335,7 +21378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -21400,7 +21443,7 @@
         <v>4</v>
       </c>
       <c r="W172" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V172&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X172" t="s">
@@ -21413,7 +21456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -21478,7 +21521,7 @@
         <v>1</v>
       </c>
       <c r="W173" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V173&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X173" t="s">
@@ -21491,7 +21534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -21556,7 +21599,7 @@
         <v>4</v>
       </c>
       <c r="W174" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V174&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X174" t="s">
@@ -21569,7 +21612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -21577,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" s="2">
         <v>0</v>
@@ -21634,7 +21677,7 @@
         <v>5</v>
       </c>
       <c r="W175" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V175&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X175" t="s">
@@ -21647,7 +21690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -21712,7 +21755,7 @@
         <v>1</v>
       </c>
       <c r="W176" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V176&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X176" t="s">
@@ -21725,7 +21768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -21790,7 +21833,7 @@
         <v>4</v>
       </c>
       <c r="W177" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V177&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X177" t="s">
@@ -21803,7 +21846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -21868,7 +21911,7 @@
         <v>1</v>
       </c>
       <c r="W178" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V178&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X178" t="s">
@@ -21881,7 +21924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -21946,7 +21989,7 @@
         <v>4</v>
       </c>
       <c r="W179" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V179&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X179" t="s">
@@ -21959,7 +22002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -22024,7 +22067,7 @@
         <v>3</v>
       </c>
       <c r="W180" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V180&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X180" t="s">
@@ -22037,7 +22080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -22102,7 +22145,7 @@
         <v>3</v>
       </c>
       <c r="W181" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V181&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X181" t="s">
@@ -22115,7 +22158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -22180,7 +22223,7 @@
         <v>1</v>
       </c>
       <c r="W182" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V182&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X182" t="s">
@@ -22193,7 +22236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -22258,7 +22301,7 @@
         <v>4</v>
       </c>
       <c r="W183" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V183&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X183" t="s">
@@ -22271,7 +22314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -22336,7 +22379,7 @@
         <v>4</v>
       </c>
       <c r="W184" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V184&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X184" t="s">
@@ -22349,7 +22392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -22414,7 +22457,7 @@
         <v>4</v>
       </c>
       <c r="W185" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V185&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X185" t="s">
@@ -22427,7 +22470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -22492,7 +22535,7 @@
         <v>4</v>
       </c>
       <c r="W186" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V186&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X186" t="s">
@@ -22505,7 +22548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -22570,7 +22613,7 @@
         <v>4</v>
       </c>
       <c r="W187" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V187&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X187" t="s">
@@ -22583,7 +22626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -22648,7 +22691,7 @@
         <v>3</v>
       </c>
       <c r="W188" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V188&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X188" t="s">
@@ -22661,7 +22704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -22726,7 +22769,7 @@
         <v>3</v>
       </c>
       <c r="W189" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V189&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X189" t="s">
@@ -22739,7 +22782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -22804,7 +22847,7 @@
         <v>5</v>
       </c>
       <c r="W190" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V190&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X190" t="s">
@@ -22817,7 +22860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -22882,7 +22925,7 @@
         <v>4</v>
       </c>
       <c r="W191" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V191&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X191" t="s">
@@ -22895,7 +22938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -22960,7 +23003,7 @@
         <v>4</v>
       </c>
       <c r="W192" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V192&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X192" t="s">
@@ -22973,7 +23016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -23038,7 +23081,7 @@
         <v>4</v>
       </c>
       <c r="W193" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V193&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X193" t="s">
@@ -23051,7 +23094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -23116,7 +23159,7 @@
         <v>4</v>
       </c>
       <c r="W194" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V194&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X194" t="s">
@@ -23129,7 +23172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -23194,7 +23237,7 @@
         <v>1</v>
       </c>
       <c r="W195" t="str">
-        <f t="shared" ref="W195:W200" si="3">IF(V195&gt;3, "Human", "LLM")</f>
+        <f>IF(V195&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X195" t="s">
@@ -23207,7 +23250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -23272,7 +23315,7 @@
         <v>4</v>
       </c>
       <c r="W196" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V196&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X196" t="s">
@@ -23285,7 +23328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -23350,7 +23393,7 @@
         <v>1</v>
       </c>
       <c r="W197" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V197&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X197" t="s">
@@ -23363,7 +23406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -23428,7 +23471,7 @@
         <v>3</v>
       </c>
       <c r="W198" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V198&gt;3, "Human", "LLM")</f>
         <v>LLM</v>
       </c>
       <c r="X198" t="s">
@@ -23441,7 +23484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -23506,7 +23549,7 @@
         <v>4</v>
       </c>
       <c r="W199" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V199&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X199" t="s">
@@ -23519,7 +23562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -23584,7 +23627,7 @@
         <v>4</v>
       </c>
       <c r="W200" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V200&gt;3, "Human", "LLM")</f>
         <v>Human</v>
       </c>
       <c r="X200" t="s">
@@ -23598,7 +23641,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z200" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z200" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z200">
+      <sortCondition ref="U1:U200"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23608,19 +23655,19 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>251</v>
       </c>
@@ -23633,7 +23680,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -23643,10 +23690,8 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23656,10 +23701,8 @@
       <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -23669,10 +23712,8 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -23682,10 +23723,8 @@
       <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -23695,10 +23734,8 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -23708,10 +23745,8 @@
       <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -23721,10 +23756,8 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -23734,10 +23767,8 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -23747,10 +23778,8 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -23760,10 +23789,8 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -23773,10 +23800,8 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -23786,10 +23811,8 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -23799,10 +23822,8 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -23812,10 +23833,8 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -23825,10 +23844,8 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -23838,8 +23855,6 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23850,66 +23865,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="1.77734375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="17" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="61" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="66" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="68" max="71" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="76" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="78" max="81" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="61" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="71" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="76" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="81" width="1.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>245</v>
       </c>
@@ -23962,162 +23977,162 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>57</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>82</v>
       </c>
-      <c r="D4" s="6">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
         <v>2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="9">
         <v>4</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="9">
         <v>2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="9">
         <v>6</v>
       </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <v>2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="9">
         <v>44</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="9">
         <v>19</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="9">
         <v>14</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="9">
         <v>24</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="9">
         <v>9</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>66</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>88</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <v>46</v>
+      </c>
+      <c r="M6" s="9">
+        <v>23</v>
+      </c>
+      <c r="N6" s="9">
+        <v>16</v>
+      </c>
+      <c r="O6" s="9">
+        <v>30</v>
+      </c>
+      <c r="P6" s="9">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>7</v>
-      </c>
-      <c r="L6" s="6">
-        <v>46</v>
-      </c>
-      <c r="M6" s="6">
-        <v>23</v>
-      </c>
-      <c r="N6" s="6">
-        <v>16</v>
-      </c>
-      <c r="O6" s="6">
-        <v>30</v>
-      </c>
-      <c r="P6" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="9">
         <v>13</v>
       </c>
     </row>

--- a/human_study/data/processed/human_likeness_comment_classifiations.xlsx
+++ b/human_study/data/processed/human_likeness_comment_classifiations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrice\Documents\GitHub\llm-psych-depth\human_study\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661FEE25-9154-493B-82F5-35C320E9714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBAD62-1021-4A52-84B9-030E5BA5153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-3735" windowWidth="27675" windowHeight="17880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="-5040" windowWidth="27675" windowHeight="17880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregated summary" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="312">
   <si>
     <t>isCreative</t>
   </si>
@@ -1079,6 +1079,18 @@
   <si>
     <t>Justifications</t>
   </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPT-4 was consistently regarded as creative and nuanced, more frequently than most human work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPT-4 had the highest rate of "ungrammatical" comments, but these were used as evidence of being human-written. </t>
+  </si>
+  <si>
+    <t>GPT-4 largely avoided the tells other LLMs fell into - e.g. basic names, being formulaic, simplistic, lessons learned…</t>
+  </si>
 </sst>
 </file>
 
@@ -1602,17 +1614,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9943,7 +9955,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A2B8F3-BA04-40A4-B0E1-C317949CBC93}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A2B8F3-BA04-40A4-B0E1-C317949CBC93}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -10166,9 +10178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10206,7 +10218,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10312,7 +10324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10454,7 +10466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10476,50 +10488,50 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -18714,7 +18726,7 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>18</v>
       </c>
     </row>
@@ -18722,7 +18734,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
@@ -18730,7 +18742,7 @@
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
@@ -18738,7 +18750,7 @@
       <c r="A7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
@@ -18746,7 +18758,7 @@
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>18</v>
       </c>
     </row>
@@ -18754,7 +18766,7 @@
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>18</v>
       </c>
     </row>
@@ -18762,7 +18774,7 @@
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>19</v>
       </c>
     </row>
@@ -18770,7 +18782,7 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>17</v>
       </c>
     </row>
@@ -18778,7 +18790,7 @@
       <c r="A12" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>100</v>
       </c>
     </row>
@@ -18789,10 +18801,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E13C71-092C-4F3C-9923-CBEADECD2D92}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18808,615 +18820,627 @@
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2">
         <v>14</v>
       </c>
       <c r="K2" s="5">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K18" si="0">SUM(C2:J2)</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3">
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <f>SUM(C3:J3)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>SUM(C5:J5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f>SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f>SUM(C7:J7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f>SUM(C9:J9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <f>SUM(C10:J10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12">
         <v>12</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(C12:J12)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13">
         <v>6</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13">
         <v>7</v>
       </c>
       <c r="K13" s="5">
-        <f>SUM(C13:J13)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14">
         <v>6</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14">
         <v>6</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM(C14:J14)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15">
         <v>6</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(C15:J15)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" s="5">
-        <f>SUM(C16:J16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" s="5">
-        <f>SUM(C17:J17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>18</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>18</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>17</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>18</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>19</v>
       </c>
-      <c r="K18" s="12">
-        <f>SUM(C18:J18)</f>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -19424,673 +19448,673 @@
       <c r="A19" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <f>C2/C$18</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D19" s="13">
-        <f t="shared" ref="D19:I19" si="0">D2/D$18</f>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:F19" si="1">D2/D$18</f>
         <v>0.75</v>
       </c>
-      <c r="E19" s="13">
-        <f>E2/E$18</f>
+      <c r="E19" s="11">
+        <f t="shared" ref="E19:E34" si="2">E2/E$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <f>G2/G$18</f>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" ref="G19:K28" si="3">G2/G$18</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="H19" s="13">
-        <f>H2/H$18</f>
+      <c r="H19" s="11">
+        <f t="shared" si="3"/>
         <v>0.41176470588235292</v>
       </c>
-      <c r="I19" s="13">
-        <f>I2/I$18</f>
+      <c r="I19" s="11">
+        <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="J19" s="13">
-        <f>J2/J$18</f>
+      <c r="J19" s="11">
+        <f t="shared" si="3"/>
         <v>0.73684210526315785</v>
       </c>
-      <c r="K19" s="14">
-        <f>K2/K$18</f>
+      <c r="K19" s="12">
+        <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" ref="C20:I20" si="1">C3/C$18</f>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:F20" si="4">C3/C$18</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="D20" s="13">
-        <f t="shared" si="1"/>
+      <c r="D20" s="11">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="E20" s="13">
-        <f>E3/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" si="1"/>
+      <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G20" s="13">
-        <f>G3/G$18</f>
+      <c r="G20" s="11">
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H20" s="13">
-        <f>H3/H$18</f>
+      <c r="H20" s="11">
+        <f t="shared" si="3"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="I20" s="13">
-        <f>I3/I$18</f>
+      <c r="I20" s="11">
+        <f t="shared" si="3"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="J20" s="13">
-        <f>J3/J$18</f>
+      <c r="J20" s="11">
+        <f t="shared" si="3"/>
         <v>0.68421052631578949</v>
       </c>
-      <c r="K20" s="14">
-        <f>K3/K$18</f>
+      <c r="K20" s="12">
+        <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="13">
-        <f t="shared" ref="C21:I21" si="2">C4/C$18</f>
+      <c r="C21" s="11">
+        <f t="shared" ref="C21:F21" si="5">C4/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" si="2"/>
+      <c r="D21" s="11">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="E21" s="13">
-        <f>E4/E$18</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="E21" s="11">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G21" s="13">
-        <f>G4/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <f>H4/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <f>I4/I$18</f>
+      <c r="F21" s="11">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J21" s="13">
-        <f>J4/J$18</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
-        <f>K4/K$18</f>
+      <c r="J21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="13">
-        <f t="shared" ref="C22:I22" si="3">C5/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="11">
+        <f t="shared" ref="C22:F22" si="6">C5/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E22" s="13">
-        <f>E5/E$18</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="H22" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G22" s="13">
-        <f>G5/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <f>H5/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
-        <f>I5/I$18</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <f>J5/J$18</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <f>K5/K$18</f>
+      <c r="I22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="13">
-        <f t="shared" ref="C23:I23" si="4">C6/C$18</f>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:F23" si="7">C6/C$18</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D23" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <f>E6/E$18</f>
+      <c r="D23" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F23" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G6/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H6/H$18</f>
+      <c r="F23" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="I23" s="13">
-        <f>I6/I$18</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <f>J6/J$18</f>
+      <c r="I23" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="K23" s="14">
-        <f>K6/K$18</f>
+      <c r="K23" s="12">
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13">
-        <f t="shared" ref="C24:I24" si="5">C7/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <f>E7/E$18</f>
+      <c r="C24" s="11">
+        <f t="shared" ref="C24:F24" si="8">C7/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <f>G7/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <f>H7/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <f>I7/I$18</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <f>J7/J$18</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="14">
-        <f>K7/K$18</f>
+      <c r="F24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="13">
-        <f t="shared" ref="C25:I25" si="6">C8/C$18</f>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:F25" si="9">C8/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D25" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <f>E8/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <f>G8/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <f>H8/H$18</f>
+      <c r="D25" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="I25" s="13">
-        <f>I8/I$18</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <f>J8/J$18</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <f>K8/K$18</f>
+      <c r="I25" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="13">
-        <f t="shared" ref="C26:I26" si="7">C9/C$18</f>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:F26" si="10">C9/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D26" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
-        <f>E9/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <f>G9/G$18</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <f>H9/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <f>I9/I$18</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <f>J9/J$18</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="14">
-        <f>K9/K$18</f>
+      <c r="D26" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="13">
-        <f t="shared" ref="C27:I27" si="8">C10/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <f>E10/E$18</f>
+      <c r="C27" s="11">
+        <f t="shared" ref="C27:F27" si="11">C10/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F27" s="13">
-        <f t="shared" si="8"/>
+      <c r="F27" s="11">
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G27" s="13">
-        <f>G10/G$18</f>
+      <c r="G27" s="11">
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="H27" s="13">
-        <f>H10/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <f>I10/I$18</f>
+      <c r="H27" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J27" s="13">
-        <f>J10/J$18</f>
+      <c r="J27" s="11">
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="K27" s="14">
-        <f>K10/K$18</f>
+      <c r="K27" s="12">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="13">
-        <f t="shared" ref="C28:I28" si="9">C11/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <f>E11/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
-        <f>G11/G$18</f>
+      <c r="C28" s="11">
+        <f t="shared" ref="C28:F28" si="12">C11/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H28" s="13">
-        <f>H11/H$18</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <f>I11/I$18</f>
+      <c r="H28" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J28" s="13">
-        <f>J11/J$18</f>
+      <c r="J28" s="11">
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="K28" s="14">
-        <f>K11/K$18</f>
+      <c r="K28" s="12">
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="13">
-        <f t="shared" ref="C29:I29" si="10">C12/C$18</f>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:F29" si="13">C12/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D29" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <f>E12/E$18</f>
+      <c r="D29" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F29" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <f>G12/G$18</f>
+      <c r="F29" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" ref="G29:K38" si="14">G12/G$18</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="H29" s="13">
-        <f>H12/H$18</f>
+      <c r="H29" s="11">
+        <f t="shared" si="14"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="I29" s="13">
-        <f>I12/I$18</f>
+      <c r="I29" s="11">
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J29" s="13">
-        <f>J12/J$18</f>
+      <c r="J29" s="11">
+        <f t="shared" si="14"/>
         <v>0.42105263157894735</v>
       </c>
-      <c r="K29" s="14">
-        <f>K12/K$18</f>
+      <c r="K29" s="12">
+        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="13">
-        <f t="shared" ref="C30:I30" si="11">C13/C$18</f>
+      <c r="C30" s="11">
+        <f t="shared" ref="C30:F30" si="15">C13/C$18</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D30" s="13">
-        <f t="shared" si="11"/>
+      <c r="D30" s="11">
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="13">
-        <f>E13/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
-        <f>G13/G$18</f>
+      <c r="E30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="14"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H30" s="13">
-        <f>H13/H$18</f>
+      <c r="H30" s="11">
+        <f t="shared" si="14"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="I30" s="13">
-        <f>I13/I$18</f>
+      <c r="I30" s="11">
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J30" s="13">
-        <f>J13/J$18</f>
+      <c r="J30" s="11">
+        <f t="shared" si="14"/>
         <v>0.36842105263157893</v>
       </c>
-      <c r="K30" s="14">
-        <f>K13/K$18</f>
+      <c r="K30" s="12">
+        <f t="shared" si="14"/>
         <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="13">
-        <f t="shared" ref="C31:I31" si="12">C14/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <f>E14/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <f>G14/G$18</f>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:F31" si="16">C14/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="14"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H31" s="13">
-        <f>H14/H$18</f>
+      <c r="H31" s="11">
+        <f t="shared" si="14"/>
         <v>0.11764705882352941</v>
       </c>
-      <c r="I31" s="13">
-        <f>I14/I$18</f>
+      <c r="I31" s="11">
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J31" s="13">
-        <f>J14/J$18</f>
+      <c r="J31" s="11">
+        <f t="shared" si="14"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="K31" s="14">
-        <f>K14/K$18</f>
+      <c r="K31" s="12">
+        <f t="shared" si="14"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="13">
-        <f t="shared" ref="C32:I32" si="13">C15/C$18</f>
+      <c r="C32" s="11">
+        <f t="shared" ref="C32:F32" si="17">C15/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D32" s="13">
-        <f t="shared" si="13"/>
+      <c r="D32" s="11">
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="E32" s="13">
-        <f>E15/E$18</f>
+      <c r="E32" s="11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F32" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
-        <f>G15/G$18</f>
+      <c r="F32" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="14"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="H32" s="13">
-        <f>H15/H$18</f>
+      <c r="H32" s="11">
+        <f t="shared" si="14"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="I32" s="13">
-        <f>I15/I$18</f>
+      <c r="I32" s="11">
+        <f t="shared" si="14"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J32" s="13">
-        <f>J15/J$18</f>
+      <c r="J32" s="11">
+        <f t="shared" si="14"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="K32" s="14">
-        <f>K15/K$18</f>
+      <c r="K32" s="12">
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C33" s="13">
-        <f t="shared" ref="C33:I33" si="14">C16/C$18</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="11">
+        <f t="shared" ref="C33:F33" si="18">C16/C$18</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="13">
-        <f>E16/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H33" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
-        <f>G16/G$18</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="H33" s="13">
-        <f>H16/H$18</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="I33" s="13">
-        <f>I16/I$18</f>
+      <c r="I33" s="11">
+        <f t="shared" si="14"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J33" s="13">
-        <f>J16/J$18</f>
+      <c r="J33" s="11">
+        <f t="shared" si="14"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="K33" s="14">
-        <f>K16/K$18</f>
+      <c r="K33" s="12">
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="13">
-        <f t="shared" ref="C34:I34" si="15">C17/C$18</f>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:F34" si="19">C17/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="13">
-        <f>E17/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <f>G17/G$18</f>
+      <c r="D34" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="14"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="H34" s="13">
-        <f>H17/H$18</f>
+      <c r="H34" s="11">
+        <f t="shared" si="14"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="I34" s="13">
-        <f>I17/I$18</f>
+      <c r="I34" s="11">
+        <f t="shared" si="14"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="J34" s="13">
-        <f>J17/J$18</f>
+      <c r="J34" s="11">
+        <f t="shared" si="14"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="K34" s="14">
-        <f>K17/K$18</f>
+      <c r="K34" s="12">
+        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
     </row>
@@ -27325,14 +27349,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="14"/>
       <c r="I1" s="5" t="s">
         <v>273</v>
       </c>
@@ -27775,11 +27799,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27868,7 +27893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -27946,7 +27971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -28024,7 +28049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -28102,7 +28127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -28180,7 +28205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -28258,7 +28283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -28336,7 +28361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -28414,7 +28439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -28570,7 +28595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -28648,7 +28673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -28726,7 +28751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -28804,7 +28829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -28882,7 +28907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -28960,7 +28985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -29038,7 +29063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -29116,7 +29141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -29194,7 +29219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -29272,7 +29297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -29350,7 +29375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -29428,7 +29453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -29506,7 +29531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -29584,7 +29609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -29740,7 +29765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -29818,7 +29843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -29896,7 +29921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -29974,7 +29999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -30052,7 +30077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -30130,7 +30155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -30208,7 +30233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -30286,7 +30311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -30442,7 +30467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -30520,7 +30545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -30598,7 +30623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -30676,7 +30701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -30754,7 +30779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -30832,7 +30857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -30910,7 +30935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -30988,7 +31013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -31066,7 +31091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -31144,7 +31169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -31222,7 +31247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -31300,7 +31325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -31378,7 +31403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -31456,7 +31481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -31534,7 +31559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -31612,7 +31637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -31690,7 +31715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -31768,7 +31793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -31846,7 +31871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -31924,7 +31949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -32002,7 +32027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -32080,7 +32105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -32158,7 +32183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -32314,7 +32339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -32392,7 +32417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -32548,7 +32573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -32626,7 +32651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -32782,7 +32807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -32860,7 +32885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -32938,7 +32963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -33016,7 +33041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -33094,7 +33119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -33172,7 +33197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -33250,7 +33275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -33328,7 +33353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -33406,7 +33431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -33484,7 +33509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -33562,7 +33587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -33640,7 +33665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -33718,7 +33743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -33796,7 +33821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -33874,7 +33899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -33952,7 +33977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -34030,7 +34055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -34108,7 +34133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -34186,7 +34211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -34264,7 +34289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -34342,7 +34367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -34420,7 +34445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -34498,7 +34523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -34576,7 +34601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -34654,7 +34679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -34732,7 +34757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -34810,7 +34835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -34888,7 +34913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -34966,7 +34991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -35044,7 +35069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -35122,7 +35147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -35200,7 +35225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -35278,7 +35303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -35356,7 +35381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -35434,7 +35459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -35512,7 +35537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -35590,7 +35615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -35668,7 +35693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -35746,7 +35771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -35824,7 +35849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -35902,7 +35927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -35980,7 +36005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -36058,7 +36083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -36136,7 +36161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -36214,7 +36239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -36292,7 +36317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -36370,7 +36395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -36448,7 +36473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -36604,7 +36629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -36682,7 +36707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -36760,7 +36785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -36838,7 +36863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -36916,7 +36941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -36994,7 +37019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -37072,7 +37097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -37150,7 +37175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -37228,7 +37253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -37306,7 +37331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -37384,7 +37409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -37462,7 +37487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -37540,7 +37565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -37618,7 +37643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -37696,7 +37721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -37774,7 +37799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -37852,7 +37877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -37930,7 +37955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -38008,7 +38033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -38086,7 +38111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -38164,7 +38189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -38242,7 +38267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -38320,7 +38345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -38398,7 +38423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -38476,7 +38501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -38554,7 +38579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -38632,7 +38657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>0</v>
       </c>
@@ -38710,7 +38735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -38788,7 +38813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>0</v>
       </c>
@@ -38866,7 +38891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -38944,7 +38969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -39022,7 +39047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -39100,7 +39125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -39178,7 +39203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -39256,7 +39281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -39334,7 +39359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>0</v>
       </c>
@@ -39412,7 +39437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>0</v>
       </c>
@@ -39490,7 +39515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>0</v>
       </c>
@@ -39568,7 +39593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -39646,7 +39671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -39724,7 +39749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -39802,7 +39827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -39880,7 +39905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -39958,7 +39983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -40036,7 +40061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -40114,7 +40139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -40192,7 +40217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -40270,7 +40295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -40348,7 +40373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -40426,7 +40451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -40504,7 +40529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -40582,7 +40607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -40660,7 +40685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -40738,7 +40763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -40816,7 +40841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -40894,7 +40919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -40972,7 +40997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -41050,7 +41075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -41128,7 +41153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -41206,7 +41231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -41284,7 +41309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -41362,7 +41387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -41440,7 +41465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -41518,7 +41543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -41596,7 +41621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -41674,7 +41699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -41752,7 +41777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -41830,7 +41855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -41908,7 +41933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -41986,7 +42011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -42064,7 +42089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -42142,7 +42167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -42220,7 +42245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -42298,7 +42323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -42376,7 +42401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -42454,7 +42479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -42532,7 +42557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -42610,7 +42635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -42688,7 +42713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -42766,7 +42791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -42844,7 +42869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -42922,7 +42947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -43000,7 +43025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -43078,7 +43103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -43156,7 +43181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -43234,7 +43259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -43312,7 +43337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -43391,7 +43416,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z200" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z200" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/human_study/data/processed/human_likeness_comment_classifiations.xlsx
+++ b/human_study/data/processed/human_likeness_comment_classifiations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrice\Documents\GitHub\llm-psych-depth\human_study\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBAD62-1021-4A52-84B9-030E5BA5153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD7458-A81F-4B70-B91F-FEE5F059F714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32145" yWindow="-5040" windowWidth="27675" windowHeight="17880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,10 +1086,10 @@
     <t xml:space="preserve">GPT-4 was consistently regarded as creative and nuanced, more frequently than most human work. </t>
   </si>
   <si>
-    <t xml:space="preserve">GPT-4 had the highest rate of "ungrammatical" comments, but these were used as evidence of being human-written. </t>
+    <t>GPT-4 largely avoided the tells other LLMs fell into - e.g. basic names, being formulaic, simplistic, lessons learned…</t>
   </si>
   <si>
-    <t>GPT-4 largely avoided the tells other LLMs fell into - e.g. basic names, being formulaic, simplistic, lessons learned…</t>
+    <t xml:space="preserve">GPT-4 had the highest rate of "ungrammatical" comments out of the LLMs, but these were used as evidence of being human-written. </t>
   </si>
 </sst>
 </file>
@@ -18804,7 +18804,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18812,8 +18812,8 @@
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -18831,10 +18831,10 @@
         <v>155</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>31</v>
@@ -18869,10 +18869,10 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -18887,7 +18887,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K18" si="0">SUM(C2:J2)</f>
+        <f>SUM(C2:J2)</f>
         <v>65</v>
       </c>
       <c r="M2" t="s">
@@ -18906,10 +18906,10 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -18924,11 +18924,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C3:J3)</f>
         <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -18961,11 +18961,11 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:J4)</f>
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -18980,10 +18980,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:J5)</f>
         <v>1</v>
       </c>
     </row>
@@ -19014,10 +19014,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -19032,7 +19032,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:J6)</f>
         <v>7</v>
       </c>
     </row>
@@ -19048,10 +19048,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:J7)</f>
         <v>1</v>
       </c>
     </row>
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:J8)</f>
         <v>3</v>
       </c>
     </row>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:J9)</f>
         <v>1</v>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:J10)</f>
         <v>5</v>
       </c>
     </row>
@@ -19202,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:J11)</f>
         <v>6</v>
       </c>
     </row>
@@ -19218,10 +19218,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -19236,7 +19236,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:J12)</f>
         <v>38</v>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:J13)</f>
         <v>22</v>
       </c>
     </row>
@@ -19304,7 +19304,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:J14)</f>
         <v>16</v>
       </c>
     </row>
@@ -19320,10 +19320,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -19338,7 +19338,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:J15)</f>
         <v>26</v>
       </c>
     </row>
@@ -19372,7 +19372,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:J16)</f>
         <v>8</v>
       </c>
     </row>
@@ -19406,7 +19406,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:J17)</f>
         <v>12</v>
       </c>
     </row>
@@ -19440,7 +19440,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:J18)</f>
         <v>100</v>
       </c>
     </row>
@@ -19456,35 +19456,35 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19:F19" si="1">D2/D$18</f>
+        <f t="shared" ref="D19" si="0">D2/D$18</f>
         <v>0.75</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" ref="E19:E34" si="2">E2/E$18</f>
+        <f>E2/E$18</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <f>F2/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
+        <f t="shared" ref="G19:K28" si="1">G2/G$18</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" ref="G19:K28" si="3">G2/G$18</f>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="3"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
     </row>
@@ -19494,39 +19494,39 @@
         <v>1</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:F20" si="4">C3/C$18</f>
+        <f t="shared" ref="C20:D20" si="2">C3/C$18</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>E3/E$18</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <f>F3/F$18</f>
+        <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.68421052631578949</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
     </row>
@@ -19536,39 +19536,39 @@
         <v>2</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21:F21" si="5">C4/C$18</f>
+        <f t="shared" ref="C21:D21" si="3">C4/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="2"/>
+        <f>E4/E$18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="5"/>
+        <f>F4/F$18</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
@@ -19578,39 +19578,39 @@
         <v>3</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22:F22" si="6">C5/C$18</f>
+        <f t="shared" ref="C22:D22" si="4">C5/C$18</f>
         <v>0</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="2"/>
+        <f>E5/E$18</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <f>F5/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F22" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="G22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -19620,39 +19620,39 @@
         <v>4</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23:F23" si="7">C6/C$18</f>
+        <f t="shared" ref="C23:D23" si="5">C6/C$18</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="2"/>
+        <f>E6/E$18</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <f>F6/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="G23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -19662,39 +19662,39 @@
         <v>5</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:F24" si="8">C7/C$18</f>
+        <f t="shared" ref="C24:D24" si="6">C7/C$18</f>
         <v>0</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="2"/>
+        <f>E7/E$18</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <f>F7/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F24" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="G24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -19704,39 +19704,39 @@
         <v>6</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25:F25" si="9">C8/C$18</f>
+        <f t="shared" ref="C25:D25" si="7">C8/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="2"/>
+        <f>E8/E$18</f>
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="9"/>
+        <f>F8/F$18</f>
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
     </row>
@@ -19746,39 +19746,39 @@
         <v>7</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26:F26" si="10">C9/C$18</f>
+        <f t="shared" ref="C26:D26" si="8">C9/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="2"/>
+        <f>E9/E$18</f>
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="10"/>
+        <f>F9/F$18</f>
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -19788,39 +19788,39 @@
         <v>8</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:F27" si="11">C10/C$18</f>
+        <f t="shared" ref="C27:D27" si="9">C10/C$18</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="2"/>
+        <f>E10/E$18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="11"/>
+        <f>F10/F$18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -19830,39 +19830,39 @@
         <v>9</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28:F28" si="12">C11/C$18</f>
+        <f t="shared" ref="C28:D28" si="10">C11/C$18</f>
         <v>0</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="2"/>
+        <f>E11/E$18</f>
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="12"/>
+        <f>F11/F$18</f>
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
@@ -19872,39 +19872,39 @@
         <v>10</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:F29" si="13">C12/C$18</f>
+        <f t="shared" ref="C29:D29" si="11">C12/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="2"/>
+        <f>E12/E$18</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <f>F12/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F29" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="G29" s="11">
-        <f t="shared" ref="G29:K38" si="14">G12/G$18</f>
+        <f t="shared" ref="G29:K38" si="12">G12/G$18</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.38</v>
       </c>
     </row>
@@ -19914,39 +19914,39 @@
         <v>11</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:F30" si="15">C13/C$18</f>
+        <f t="shared" ref="C30:D30" si="13">C13/C$18</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="2"/>
+        <f>E13/E$18</f>
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="15"/>
+        <f>F13/F$18</f>
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.22</v>
       </c>
     </row>
@@ -19956,39 +19956,39 @@
         <v>12</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:F31" si="16">C14/C$18</f>
+        <f t="shared" ref="C31:D31" si="14">C14/C$18</f>
         <v>0</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="2"/>
+        <f>E14/E$18</f>
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="16"/>
+        <f>F14/F$18</f>
         <v>0</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
     </row>
@@ -19998,39 +19998,39 @@
         <v>13</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" ref="C32:F32" si="17">C15/C$18</f>
+        <f t="shared" ref="C32:D32" si="15">C15/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="2"/>
+        <f>E15/E$18</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <f>F15/F$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F32" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="G32" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.26</v>
       </c>
     </row>
@@ -20040,39 +20040,39 @@
         <v>247</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" ref="C33:F33" si="18">C16/C$18</f>
+        <f t="shared" ref="C33:D33" si="16">C16/C$18</f>
         <v>0</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" si="2"/>
+        <f>E16/E$18</f>
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="18"/>
+        <f>F16/F$18</f>
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
     </row>
@@ -20082,39 +20082,39 @@
         <v>249</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:F34" si="19">C17/C$18</f>
+        <f t="shared" ref="C34:D34" si="17">C17/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E34" s="11">
-        <f t="shared" si="2"/>
+        <f>E17/E$18</f>
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="19"/>
+        <f>F17/F$18</f>
         <v>0</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
     </row>

--- a/human_study/data/processed/human_likeness_comment_classifiations.xlsx
+++ b/human_study/data/processed/human_likeness_comment_classifiations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrice\Documents\GitHub\llm-psych-depth\human_study\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD7458-A81F-4B70-B91F-FEE5F059F714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4415FD3C-4A34-4B69-8E76-5EF229890794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="-5040" windowWidth="27675" windowHeight="17880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31020" yWindow="-3210" windowWidth="28500" windowHeight="17880" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregated summary" sheetId="8" r:id="rId1"/>
@@ -1618,13 +1618,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10488,50 +10488,50 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -18803,7 +18803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E13C71-092C-4F3C-9923-CBEADECD2D92}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -18851,12 +18851,12 @@
       <c r="K1" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>304</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -18887,7 +18887,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="5">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K18" si="0">SUM(C2:J2)</f>
         <v>65</v>
       </c>
       <c r="M2" t="s">
@@ -18895,7 +18895,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <f>SUM(C3:J3)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="M3" t="s">
@@ -18932,7 +18932,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M4" t="s">
@@ -18969,7 +18969,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -18998,12 +18998,12 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -19032,12 +19032,12 @@
         <v>1</v>
       </c>
       <c r="K6" s="5">
-        <f>SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
@@ -19066,12 +19066,12 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f>SUM(C7:J7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
@@ -19100,12 +19100,12 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -19134,12 +19134,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f>SUM(C9:J9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
@@ -19168,12 +19168,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="5">
-        <f>SUM(C10:J10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -19202,12 +19202,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -19236,12 +19236,12 @@
         <v>8</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(C12:J12)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
@@ -19270,12 +19270,12 @@
         <v>7</v>
       </c>
       <c r="K13" s="5">
-        <f>SUM(C13:J13)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
@@ -19304,12 +19304,12 @@
         <v>6</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM(C14:J14)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
@@ -19338,12 +19338,12 @@
         <v>6</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(C15:J15)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="13" t="s">
         <v>247</v>
       </c>
@@ -19372,12 +19372,12 @@
         <v>2</v>
       </c>
       <c r="K16" s="5">
-        <f>SUM(C16:J16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="13" t="s">
         <v>249</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="5">
-        <f>SUM(C17:J17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -19440,12 +19440,12 @@
         <v>19</v>
       </c>
       <c r="K18" s="10">
-        <f>SUM(C18:J18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>305</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -19456,665 +19456,665 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19" si="0">D2/D$18</f>
+        <f t="shared" ref="D19" si="1">D2/D$18</f>
         <v>0.75</v>
       </c>
       <c r="E19" s="11">
-        <f>E2/E$18</f>
+        <f t="shared" ref="E19:F34" si="2">E2/E$18</f>
         <v>1</v>
       </c>
       <c r="F19" s="11">
-        <f>F2/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" ref="G19:K28" si="1">G2/G$18</f>
+        <f t="shared" ref="G19:K28" si="3">G2/G$18</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:D20" si="2">C3/C$18</f>
+        <f t="shared" ref="C20:D20" si="4">C3/C$18</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="D20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="11">
-        <f>E3/E$18</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F20" s="11">
-        <f>F3/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68421052631578949</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21:D21" si="3">C4/C$18</f>
+        <f t="shared" ref="C21:D21" si="5">C4/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D21" s="11">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="11">
-        <f>E4/E$18</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F21" s="11">
-        <f>F4/F$18</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22:D22" si="4">C5/C$18</f>
+        <f t="shared" ref="C22:D22" si="6">C5/C$18</f>
         <v>0</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <f>E5/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="11">
-        <f>F5/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23:D23" si="5">C6/C$18</f>
+        <f t="shared" ref="C23:D23" si="7">C6/C$18</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f>E6/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f>F6/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:D24" si="6">C7/C$18</f>
+        <f t="shared" ref="C24:D24" si="8">C7/C$18</f>
         <v>0</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E24" s="11">
-        <f>E7/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="11">
-        <f>F7/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25:D25" si="7">C8/C$18</f>
+        <f t="shared" ref="C25:D25" si="9">C8/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <f>E8/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f>F8/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26:D26" si="8">C9/C$18</f>
+        <f t="shared" ref="C26:D26" si="10">C9/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <f>E9/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <f>F9/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:D27" si="9">C10/C$18</f>
+        <f t="shared" ref="C27:D27" si="11">C10/C$18</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <f>E10/E$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F27" s="11">
-        <f>F10/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28:D28" si="10">C11/C$18</f>
+        <f t="shared" ref="C28:D28" si="12">C11/C$18</f>
         <v>0</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E28" s="11">
-        <f>E11/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="11">
-        <f>F11/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:D29" si="11">C12/C$18</f>
+        <f t="shared" ref="C29:D29" si="13">C12/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E29" s="11">
-        <f>E12/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <f>F12/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" ref="G29:K38" si="12">G12/G$18</f>
+        <f t="shared" ref="G29:K34" si="14">G12/G$18</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:D30" si="13">C13/C$18</f>
+        <f t="shared" ref="C30:D30" si="15">C13/C$18</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="E30" s="11">
-        <f>E13/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <f>F13/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:D31" si="14">C14/C$18</f>
+        <f t="shared" ref="C31:D31" si="16">C14/C$18</f>
         <v>0</v>
       </c>
       <c r="D31" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <f>E14/E$18</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <f>F14/F$18</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="12"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" ref="C32:D32" si="15">C15/C$18</f>
+        <f t="shared" ref="C32:D32" si="17">C15/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="E32" s="11">
-        <f>E15/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <f>F15/F$18</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" ref="C33:D33" si="16">C16/C$18</f>
+        <f t="shared" ref="C33:D33" si="18">C16/C$18</f>
         <v>0</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E33" s="11">
-        <f>E16/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <f>F16/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="13" t="s">
         <v>249</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:D34" si="17">C17/C$18</f>
+        <f t="shared" ref="C34:D34" si="19">C17/C$18</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E34" s="11">
-        <f>E17/E$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <f>F17/F$18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
     </row>
@@ -27349,14 +27349,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="15"/>
       <c r="I1" s="5" t="s">
         <v>273</v>
       </c>
@@ -27802,9 +27802,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q64" sqref="Q64"/>
+      <selection pane="bottomLeft" activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28517,7 +28517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -30389,7 +30389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -36551,7 +36551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -37487,7 +37487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -37522,7 +37522,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" s="2">
         <v>0</v>
@@ -37565,7 +37565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -37799,7 +37799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -37840,7 +37840,7 @@
         <v>0</v>
       </c>
       <c r="N129" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" s="2">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -41309,7 +41309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -41387,7 +41387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -41465,7 +41465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M176" s="2">
         <v>0</v>
@@ -42089,7 +42089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -43417,9 +43417,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Z200" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
+    <filterColumn colId="23">
       <filters>
-        <filter val="1"/>
+        <filter val="Human-High"/>
       </filters>
     </filterColumn>
   </autoFilter>
